--- a/IPL/Data/exp/pstats_v01_GT_fyml.xlsx
+++ b/IPL/Data/exp/pstats_v01_GT_fyml.xlsx
@@ -4479,7 +4479,7 @@
         <v>13</v>
       </c>
       <c r="BY15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BZ15" t="n">
         <v>7</v>
@@ -4497,7 +4497,7 @@
         <v>33</v>
       </c>
       <c r="CE15" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="CF15" t="n">
         <v>31</v>
